--- a/data/trans_dic/P68-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P68-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,59%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>20,18; 33,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>6,46; 22,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>13,51; 32,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>2,12; 21,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>9,23; 20,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>5,86; 19,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,04</t>
+          <t>6,67; 20,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>9,87; 33,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>16,22; 25,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>7,82; 17,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>11,57; 23,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>7,53; 22,86</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>21,94; 29,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>18,51; 27,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>19,43; 29,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>11,95; 22,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>18,88; 27,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>19,19; 29,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>12,8; 21,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>12,56; 22,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>22,05; 27,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>20,03; 26,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>17,75; 24,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,72; 20,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,24%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>19,09; 26,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>19,51; 27,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>20,39; 28,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>17,19; 24,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>18,38; 28,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>20,78; 31,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>17,9; 27,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>18,23; 25,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>20,05; 25,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>21,09; 27,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>20,83; 27,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,56; 24,11</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,06%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>21,2; 30,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>20,56; 30,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>20,45; 29,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,32; 23,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>16,0; 28,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>13,49; 24,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>17,42; 29,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,23; 37,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>21,32; 28,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>18,98; 26,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>20,84; 28,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>20,71; 28,51</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,81%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>21,55; 35,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>21,37; 35,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,32</t>
+          <t>20,32; 35,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>18,31; 27,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>12,09; 32,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>23,36; 46,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>20,69; 40,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>22,77; 31,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>20,83; 32,27</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>24,96; 36,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>22,37; 34,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>21,4; 28,07</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>16,3%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31,4%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,0; 67,35</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 85,48</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 35,35</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 36,25</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 44,41</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>0; 30,57</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7,61; 33,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 42,89</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
         <is>
           <t>0; 26,42</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 6,36</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 36,25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 44,41</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0; 30,57</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 5,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 18,74</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 26,42</t>
-        </is>
-      </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 50,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>8,29; 27,79</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,94%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>22,72; 26,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>21,07; 25,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>22,39; 27,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,24; 21,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,7; 24,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>20,1; 25,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>18,53; 23,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>21,98; 27,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>22,24; 25,33</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>21,35; 24,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>21,43; 24,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>19,82; 23,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P68-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,04%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,12; 21,69</t>
+          <t>1,75; 20,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 33,2</t>
+          <t>9,77; 33,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 22,86</t>
+          <t>7,09; 22,25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>15,8%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 22,43</t>
+          <t>12,12; 22,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,56; 22,29</t>
+          <t>6,55; 19,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 20,96</t>
+          <t>10,95; 19,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,19; 24,67</t>
+          <t>17,26; 24,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 25,69</t>
+          <t>18,19; 25,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,56; 24,11</t>
+          <t>18,54; 24,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>22,14%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,91</t>
+          <t>5,97; 22,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,23; 37,25</t>
+          <t>28,07; 49,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,71; 28,51</t>
+          <t>9,7; 29,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>24,49%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,31; 27,36</t>
+          <t>18,39; 27,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,77; 31,57</t>
+          <t>22,85; 31,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,4; 28,07</t>
+          <t>21,44; 28,1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>18,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>16,82%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,35</t>
+          <t>0; 56,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,48</t>
+          <t>0,0; 78,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 35,35</t>
+          <t>5,39; 37,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 33,57</t>
+          <t>7,56; 33,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,89</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,26</t>
+          <t>0,0; 47,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,29; 27,79</t>
+          <t>8,71; 28,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0; 56,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>24,82%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,49%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24,51%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,75%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23,19%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>22,72; 26,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>21,07; 25,59</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>22,39; 27,26</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 21,92</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 20,98</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>18,7; 24,18</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>20,1; 25,89</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>18,53; 23,46</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>21,98; 27,03</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 30,53</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>22,24; 25,33</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>21,35; 24,73</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>21,43; 24,9</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 23,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15,84; 23,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P68-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P68-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,18; 33,37</t>
+          <t>19,83; 33,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 22,22</t>
+          <t>7,01; 21,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,51; 32,66</t>
+          <t>13,75; 33,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 20,95</t>
+          <t>1,8; 22,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 20,22</t>
+          <t>9,13; 20,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 19,95</t>
+          <t>5,8; 19,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 20,99</t>
+          <t>6,49; 19,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,77; 33,25</t>
+          <t>10,13; 33,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 25,53</t>
+          <t>16,52; 25,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 17,74</t>
+          <t>7,55; 17,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 23,77</t>
+          <t>11,86; 23,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 22,25</t>
+          <t>7,54; 22,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,94; 29,35</t>
+          <t>21,7; 29,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,51; 27,29</t>
+          <t>18,44; 27,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,43; 29,38</t>
+          <t>19,39; 28,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,12; 22,88</t>
+          <t>12,37; 22,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 27,99</t>
+          <t>19,02; 28,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,19; 29,66</t>
+          <t>18,94; 30,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,8; 21,74</t>
+          <t>12,66; 21,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 19,63</t>
+          <t>7,49; 19,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,05; 27,82</t>
+          <t>21,92; 27,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,03; 26,86</t>
+          <t>19,89; 26,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 24,5</t>
+          <t>17,8; 23,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 19,85</t>
+          <t>10,66; 19,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,31</t>
+          <t>18,79; 26,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,51; 27,55</t>
+          <t>19,6; 27,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,39; 28,67</t>
+          <t>20,93; 29,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,26; 24,95</t>
+          <t>17,25; 24,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 28,5</t>
+          <t>18,77; 28,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,78; 31,25</t>
+          <t>20,56; 30,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,9; 27,15</t>
+          <t>18,31; 28,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 25,7</t>
+          <t>18,23; 25,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 25,72</t>
+          <t>19,86; 25,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21,09; 27,32</t>
+          <t>20,88; 27,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 27,44</t>
+          <t>20,82; 27,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,54; 24,23</t>
+          <t>18,77; 24,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,2; 30,13</t>
+          <t>21,44; 30,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,56; 30,5</t>
+          <t>20,26; 30,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,45; 29,78</t>
+          <t>20,12; 29,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 22,76</t>
+          <t>5,62; 22,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 28,79</t>
+          <t>16,26; 28,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 24,59</t>
+          <t>13,24; 23,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 29,31</t>
+          <t>17,75; 29,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,07; 49,97</t>
+          <t>28,09; 50,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,81</t>
+          <t>21,09; 28,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,98; 26,16</t>
+          <t>19,04; 26,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 28,11</t>
+          <t>20,8; 28,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 29,52</t>
+          <t>11,67; 29,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,55; 35,24</t>
+          <t>21,13; 35,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,37; 35,42</t>
+          <t>21,23; 34,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,32; 35,41</t>
+          <t>20,05; 34,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,39; 27,4</t>
+          <t>18,07; 27,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,09; 32,3</t>
+          <t>12,61; 32,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,36; 46,73</t>
+          <t>23,22; 46,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 40,24</t>
+          <t>21,18; 40,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,85; 31,75</t>
+          <t>22,32; 31,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,83; 32,27</t>
+          <t>20,53; 32,17</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,96; 36,81</t>
+          <t>24,44; 36,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,37; 34,23</t>
+          <t>22,69; 34,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,44; 28,1</t>
+          <t>21,36; 27,76</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,63</t>
+          <t>0,0; 78,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 37,62</t>
+          <t>5,17; 35,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 33,45</t>
+          <t>6,63; 30,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,82</t>
+          <t>0,0; 56,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,41</t>
+          <t>8,98; 28,8</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,72; 26,87</t>
+          <t>22,82; 26,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,07; 25,59</t>
+          <t>21,2; 25,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>22,39; 27,26</t>
+          <t>22,58; 27,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12,01; 20,98</t>
+          <t>11,41; 20,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,7; 24,18</t>
+          <t>19,17; 24,41</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,1; 25,89</t>
+          <t>20,07; 25,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,53; 23,46</t>
+          <t>18,57; 23,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,53</t>
+          <t>20,89; 30,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,24; 25,33</t>
+          <t>22,11; 25,31</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21,35; 24,73</t>
+          <t>21,42; 24,82</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,43; 24,9</t>
+          <t>21,5; 25,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,45</t>
+          <t>16,16; 23,17</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que piensan que su trabajo les afecta negativamente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46172</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10327</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17151</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19859</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10056</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11643</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>15344</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66031</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20383</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>28794</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35016; 59789</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5735; 17616</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>10728; 26136</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1514; 18523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12878; 28623</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5093; 17161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5961; 18134</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8052; 26908</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52473; 80612</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12805; 30084</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>20148; 39245</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12330; 36049</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>142291</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86288</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>81572</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>59074</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>79275</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67112</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46290</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49949</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>221566</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>153400</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>127863</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>109022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>120739; 162859</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>70740; 104135</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>66359; 97467</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42543; 78946</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>64470; 97834</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52514; 83721</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>34658; 59121</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25940; 68083</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>196259; 249658</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>131448; 177134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>109610; 147532</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>73534; 135916</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>126029</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>99714</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>113123</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>95531</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>70042</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72631</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71458</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>75552</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>196070</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>172345</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>184581</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>171084</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>105262; 146058</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83534; 117734</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>95653; 132630</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78807; 112500</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>57179; 86261</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>58540; 88015</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>57768; 89049</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63290; 88174</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>171774; 221071</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>148452; 195632</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>160867; 209290</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>150946; 193417</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>111110</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91196</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>91428</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>108553</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>37037</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>41446</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>56107</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>154949</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>148147</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>132642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>147535</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>263502</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>92670; 131940</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>74283; 111163</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73170; 108531</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>41647; 169420</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27489; 48402</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>29967; 54326</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42973; 71139</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>126062; 228126</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>126776; 170691</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>112937; 155072</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>126011; 169706</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>138976; 351234</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45882</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43927</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>44848</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>67436</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13909</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24582</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30799</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>55507</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59791</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68509</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>75646</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>122943</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>34479; 58515</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>33407; 54683</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32801; 55993</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>53454; 80695</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8109; 21126</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16185; 32744</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21950; 41592</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45995; 65443</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46689; 73161</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55496; 82848</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>60630; 91969</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>107213; 139315</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1879</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1880</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5836</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1462</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1339</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4081</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>877; 6002</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1313</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1260</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1587</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1177; 5456</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1635</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1546</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5884</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>3114; 9992</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 613</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 910</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2471</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 613</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0; 910</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>472305</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>331452</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>339505</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>220121</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>215828</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>216298</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>354215</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>692427</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>547280</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>566299</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>693720</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>432161; 506905</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>300778; 363978</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>318451; 384700</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>221407; 403545</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>195809; 249326</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>190384; 244971</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>191645; 245787</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>301871; 435034</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>644460; 737682</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>506992; 587553</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>525085; 613144</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>547345; 784691</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>